--- a/Data/EC/NIT-9000107771.xlsx
+++ b/Data/EC/NIT-9000107771.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6114BEB-A43E-48D7-B72A-DAF5DD09A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4636DF8-66A7-4B0F-9395-0D0A3FC97388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C365D95-CA90-4732-B180-6F50FE41ECAA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CB2AF1D-20E1-4E43-B202-449251123E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1041993273</t>
+  </si>
+  <si>
+    <t>ANTONIO JOSE IRIARTE ARZUZA</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>33336882</t>
   </si>
   <si>
@@ -74,115 +83,64 @@
     <t>2504</t>
   </si>
   <si>
+    <t>1237439154</t>
+  </si>
+  <si>
+    <t>YESSIKA MARIA LOPEZ YI</t>
+  </si>
+  <si>
+    <t>1047409204</t>
+  </si>
+  <si>
+    <t>KAREN SOFIA ZUÑIGA ROMERO</t>
+  </si>
+  <si>
+    <t>1002203795</t>
+  </si>
+  <si>
+    <t>OSCAR LUIS MARTINEZ CASTRO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1235044970</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO CARRIAZO BARON</t>
+  </si>
+  <si>
+    <t>1051821127</t>
+  </si>
+  <si>
+    <t>RAFAEL DE JESUS BALLESTA BUSTILLO</t>
+  </si>
+  <si>
     <t>1128058321</t>
   </si>
   <si>
     <t>EDGARDO MARIMON HERRERA</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1002201021</t>
-  </si>
-  <si>
-    <t>OVER LUIS MORALES PEREZ</t>
-  </si>
-  <si>
-    <t>1237439154</t>
-  </si>
-  <si>
-    <t>YESSIKA MARIA LOPEZ YI</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1041993273</t>
-  </si>
-  <si>
-    <t>ANTONIO JOSE IRIARTE ARZUZA</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1047501012</t>
-  </si>
-  <si>
-    <t>MARIA JOSE GARCIA PEREZ</t>
-  </si>
-  <si>
-    <t>1047409204</t>
-  </si>
-  <si>
-    <t>KAREN SOFIA ZUÑIGA ROMERO</t>
-  </si>
-  <si>
-    <t>1047387351</t>
-  </si>
-  <si>
-    <t>EGNA SANCHEZ GOMEZ</t>
-  </si>
-  <si>
-    <t>1001902256</t>
-  </si>
-  <si>
-    <t>BRILLYTH PAOLA WATTS SARABIA</t>
-  </si>
-  <si>
     <t>1237440565</t>
   </si>
   <si>
     <t>ADOLFO JESUS QUEVEDO LLERENA</t>
   </si>
   <si>
-    <t>1001969461</t>
-  </si>
-  <si>
-    <t>JOWER SANTOS CASTRO GOMEZ</t>
-  </si>
-  <si>
-    <t>1002203795</t>
-  </si>
-  <si>
-    <t>OSCAR LUIS MARTINEZ CASTRO</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>5747738</t>
-  </si>
-  <si>
-    <t>SILVIA PATRICIA VILLEGAS DIAZ</t>
-  </si>
-  <si>
-    <t>1001976205</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES MURILLO ARELLANO</t>
-  </si>
-  <si>
-    <t>1235044970</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO CARRIAZO BARON</t>
-  </si>
-  <si>
-    <t>1051821127</t>
-  </si>
-  <si>
-    <t>RAFAEL DE JESUS BALLESTA BUSTILLO</t>
-  </si>
-  <si>
-    <t>1001901664</t>
-  </si>
-  <si>
-    <t>ROSA ELVIRA PEREZ GARCIA</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1002248786</t>
+  </si>
+  <si>
+    <t>BRAYAN DANIEL CHAVEZ MENDOZA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -281,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -294,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -496,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0FBDDE-1CA9-9EF6-EFBD-FD6B38E9B342}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F928A08D-93EC-F1D7-D91B-45737DE0E0D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3379DD38-71C6-4B45-8D14-28B7A6C0E067}">
-  <dimension ref="B2:J54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F652259E-153C-49BB-AC19-E7DEFB4EC9C8}">
+  <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -972,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1017,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1049,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1387813</v>
+        <v>1295476</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1065,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1102,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1125,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20878</v>
+        <v>5694</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1148,7 +1106,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G17" s="18">
         <v>1423500</v>
@@ -1162,16 +1120,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>39858</v>
+        <v>26572</v>
       </c>
       <c r="G18" s="18">
         <v>1423500</v>
@@ -1185,16 +1143,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>20878</v>
       </c>
       <c r="G19" s="18">
         <v>1423500</v>
@@ -1208,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>9490</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1231,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1254,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1277,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>26572</v>
+        <v>57200</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1430000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1300,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1323,16 +1281,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
-        <v>56940</v>
+        <v>39858</v>
       </c>
       <c r="G25" s="18">
         <v>1423500</v>
@@ -1346,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1369,16 +1327,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>5694</v>
+        <v>56940</v>
       </c>
       <c r="G27" s="18">
         <v>1423500</v>
@@ -1392,19 +1350,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>8800</v>
+        <v>57200</v>
       </c>
       <c r="G28" s="18">
-        <v>220000</v>
+        <v>1430000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1421,13 +1379,13 @@
         <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>8800</v>
+        <v>56940</v>
       </c>
       <c r="G29" s="18">
-        <v>220000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1438,19 +1396,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>7333</v>
+        <v>56940</v>
       </c>
       <c r="G30" s="18">
-        <v>220000</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1461,16 +1419,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>20878</v>
+        <v>56940</v>
       </c>
       <c r="G31" s="18">
         <v>1423500</v>
@@ -1484,19 +1442,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F32" s="18">
-        <v>6720</v>
+        <v>56940</v>
       </c>
       <c r="G32" s="18">
-        <v>280000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1507,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F33" s="18">
-        <v>4480</v>
+        <v>56940</v>
       </c>
       <c r="G33" s="18">
-        <v>280000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1530,19 +1488,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>56940</v>
+        <v>57200</v>
       </c>
       <c r="G34" s="18">
-        <v>280000</v>
+        <v>1430000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1553,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1576,16 +1534,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G36" s="18">
         <v>1423500</v>
@@ -1599,16 +1557,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>9490</v>
+        <v>56940</v>
       </c>
       <c r="G37" s="18">
         <v>1423500</v>
@@ -1619,22 +1577,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
-        <v>57200</v>
+        <v>56940</v>
       </c>
       <c r="G38" s="18">
-        <v>1430000</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1645,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>56940</v>
@@ -1668,19 +1626,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>57200</v>
+        <v>32266</v>
       </c>
       <c r="G40" s="18">
-        <v>1430000</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1691,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
         <v>57200</v>
@@ -1710,194 +1668,56 @@
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="B42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G42" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="32"/>
+      <c r="H47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="18">
-        <v>57200</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1430000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="18">
-        <v>28470</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G48" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="H53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
